--- a/kodilla-good-patterns/FlightFinder-Help.xlsx
+++ b/kodilla-good-patterns/FlightFinder-Help.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demet\Dropbox\GREEN\INNERJOIN\KODILLA\Projects\Kodilla-Course\kodilla-good-patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CC43B2-A022-462C-AA93-9CD76C5F187C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9228F867-2A0B-434A-8194-996C96D63C89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="285" windowWidth="13260" windowHeight="15225" xr2:uid="{9304884E-7199-4BCE-BAC9-9140A4AAC528}"/>
+    <workbookView xWindow="90" yWindow="135" windowWidth="13260" windowHeight="15225" xr2:uid="{9304884E-7199-4BCE-BAC9-9140A4AAC528}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,173 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
+  <si>
+    <t>Size of FlightDatabase.getFlights()</t>
+  </si>
+  <si>
+    <t>Foreach</t>
+  </si>
+  <si>
+    <t>For (0-11)</t>
+  </si>
+  <si>
+    <t>For(0-11)</t>
+  </si>
+  <si>
+    <t>HashSet listOfCities</t>
+  </si>
+  <si>
+    <t>listOfCities.add(myFlight.departureCity)</t>
+  </si>
+  <si>
+    <t>FligthDatabase.getFlightsFromCity(myFlight.departureCity)</t>
+  </si>
+  <si>
+    <t>listOfCities.add(flight.getArrivalCity)</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>numberOfFlights</t>
+  </si>
+  <si>
+    <t>maxChanges</t>
+  </si>
+  <si>
+    <t>for(i=0;i&lt;maxChanges;i++)</t>
+  </si>
+  <si>
+    <t>for(j=0;j&lt;i+1;j++)</t>
+  </si>
+  <si>
+    <t>if(j==0)</t>
+  </si>
+  <si>
+    <t>currentCity = journey.getInitialCity()</t>
+  </si>
+  <si>
+    <t>List&lt;Flight&gt; possibleFlights = flightDatabes.getFlightsFromCity(journey.getInitialCity())</t>
+  </si>
+  <si>
+    <t>if(possibleFlights.size()==0)</t>
+  </si>
+  <si>
+    <t>throws NoFlightsException</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>Wszystkie loty</t>
+  </si>
+  <si>
+    <t>maxPrzesiadki</t>
+  </si>
+  <si>
+    <t>poWszystkichLotach</t>
+  </si>
+  <si>
+    <t>Miasto = W</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>Else</t>
+  </si>
+  <si>
+    <t>if Lot.departureCity != W</t>
+  </si>
+  <si>
+    <t>tempListOfJourneys</t>
+  </si>
+  <si>
+    <t>builtListOfJourneys</t>
+  </si>
+  <si>
+    <t>Liczba przesiadek</t>
+  </si>
+  <si>
+    <t>temp i built</t>
+  </si>
+  <si>
+    <t>Dla każdgo elementu w temp</t>
+  </si>
+  <si>
+    <t>Przefiltruj built</t>
+  </si>
+  <si>
+    <t>Jeżeli niepusty utwórz nowe podróze w resultListOfJourneys</t>
+  </si>
+  <si>
+    <t>Wyczyść temp</t>
+  </si>
+  <si>
+    <t>Skopiuj built do temp</t>
+  </si>
+  <si>
+    <t>Wyczyśc built</t>
+  </si>
+  <si>
+    <t>Journey.isLooped()</t>
+  </si>
+  <si>
+    <t>for(Flight:Journey)</t>
+  </si>
+  <si>
+    <t>HashSet cities</t>
+  </si>
+  <si>
+    <t>cities.add(Flight.getDepartureCity())</t>
+  </si>
+  <si>
+    <t>cities.add(Flight.getArrivalCity())</t>
+  </si>
+  <si>
+    <t>if(cities.size()==journey.size()+1)</t>
+  </si>
+  <si>
+    <t>return false</t>
+  </si>
+  <si>
+    <t>return true</t>
+  </si>
+  <si>
+    <t>possibleFlights</t>
+  </si>
+  <si>
+    <t>Utwórz nową listę dalszych lotów (possibleFlights)</t>
+  </si>
+  <si>
+    <t>Dla każdego lotu w possibleFlights</t>
+  </si>
+  <si>
+    <t>Utwórz nową Journey</t>
+  </si>
+  <si>
+    <t>Sprawdź isLooped</t>
+  </si>
+  <si>
+    <t>Jeżeli nie to dodaj Journey do builtListOfJourneys</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45,12 +211,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -65,8 +237,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1086,14 +1259,449 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468E7A7C-818A-47DD-B9F9-EC8C3A79F20C}">
-  <dimension ref="A1"/>
+  <dimension ref="AG5:BJ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG6" sqref="AG6"/>
+    <sheetView tabSelected="1" topLeftCell="AL28" workbookViewId="0">
+      <selection activeCell="BB45" sqref="BB45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="33:62" x14ac:dyDescent="0.25">
+      <c r="BI5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="33:62" x14ac:dyDescent="0.25">
+      <c r="BD6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="33:62" x14ac:dyDescent="0.25">
+      <c r="BD7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="33:62" x14ac:dyDescent="0.25">
+      <c r="BD8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="33:62" x14ac:dyDescent="0.25">
+      <c r="BD9" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="33:62" x14ac:dyDescent="0.25">
+      <c r="BD10" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="33:62" x14ac:dyDescent="0.25">
+      <c r="BD11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="33:62" x14ac:dyDescent="0.25">
+      <c r="BD12" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="33:62" x14ac:dyDescent="0.25">
+      <c r="BD13" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="33:62" x14ac:dyDescent="0.25">
+      <c r="AG14" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="33:62" x14ac:dyDescent="0.25">
+      <c r="AG15" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="33:62" x14ac:dyDescent="0.25">
+      <c r="AH16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="35:60" x14ac:dyDescent="0.25">
+      <c r="AI17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="35:60" x14ac:dyDescent="0.25">
+      <c r="AI18" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="35:60" x14ac:dyDescent="0.25">
+      <c r="AI19" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="35:60" x14ac:dyDescent="0.25">
+      <c r="AJ20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="35:60" x14ac:dyDescent="0.25">
+      <c r="AK21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="35:60" x14ac:dyDescent="0.25">
+      <c r="BA22">
+        <v>14</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="35:60" x14ac:dyDescent="0.25">
+      <c r="BA23">
+        <v>1</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="35:60" x14ac:dyDescent="0.25">
+      <c r="BD25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="35:60" x14ac:dyDescent="0.25">
+      <c r="BE26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="35:60" x14ac:dyDescent="0.25">
+      <c r="BF27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="35:60" x14ac:dyDescent="0.25">
+      <c r="AT28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="35:60" x14ac:dyDescent="0.25">
+      <c r="AP29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="35:60" x14ac:dyDescent="0.25">
+      <c r="AP30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="35:60" x14ac:dyDescent="0.25">
+      <c r="AP31" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="35:60" x14ac:dyDescent="0.25">
+      <c r="AP32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="43:60" x14ac:dyDescent="0.25">
+      <c r="BG33" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="43:60" x14ac:dyDescent="0.25">
+      <c r="AT34" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="43:60" x14ac:dyDescent="0.25">
+      <c r="AT35" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="43:60" x14ac:dyDescent="0.25">
+      <c r="BF36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="43:60" x14ac:dyDescent="0.25">
+      <c r="BB37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="43:60" x14ac:dyDescent="0.25">
+      <c r="AQ38" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="43:60" x14ac:dyDescent="0.25">
+      <c r="AQ39" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="43:60" x14ac:dyDescent="0.25">
+      <c r="AQ40" t="s">
+        <v>32</v>
+      </c>
+      <c r="BC40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="43:60" x14ac:dyDescent="0.25">
+      <c r="BD41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="43:60" x14ac:dyDescent="0.25">
+      <c r="AQ42" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="43:60" x14ac:dyDescent="0.25">
+      <c r="AR43" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="43:60" x14ac:dyDescent="0.25">
+      <c r="AR44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="43:60" x14ac:dyDescent="0.25">
+      <c r="AS45" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="43:60" x14ac:dyDescent="0.25">
+      <c r="AS46" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="43:60" x14ac:dyDescent="0.25">
+      <c r="AR47" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="43:60" x14ac:dyDescent="0.25">
+      <c r="AS48" t="s">
+        <v>47</v>
+      </c>
+      <c r="BE48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="44:59" x14ac:dyDescent="0.25">
+      <c r="AR49" t="s">
+        <v>23</v>
+      </c>
+      <c r="BF49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="44:59" x14ac:dyDescent="0.25">
+      <c r="AS50" t="s">
+        <v>48</v>
+      </c>
+      <c r="BG50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="44:59" x14ac:dyDescent="0.25">
+      <c r="BG51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="44:59" x14ac:dyDescent="0.25">
+      <c r="BG52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="44:59" x14ac:dyDescent="0.25">
+      <c r="BD53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="44:59" x14ac:dyDescent="0.25">
+      <c r="BD54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="44:59" x14ac:dyDescent="0.25">
+      <c r="BD55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="44:59" x14ac:dyDescent="0.25">
+      <c r="BD56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="44:59" x14ac:dyDescent="0.25">
+      <c r="BD57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
